--- a/Data/2018/Oferta_de_empleo_Costa_Rica_4_trimestre_2018.xlsx
+++ b/Data/2018/Oferta_de_empleo_Costa_Rica_4_trimestre_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Contenido "/>
@@ -1271,7 +1271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,7 +1281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1309,6 +1309,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -2142,179 +2148,179 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2366,9 +2372,6 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2376,6 +2379,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -2390,7 +2396,7 @@
     <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="40" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
@@ -2710,7 +2716,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="52" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="108" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="109" width="11.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="109" width="113.29071428571429" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2721,17 +2727,17 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
-      <c r="A2" s="55"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="127" t="s">
         <v>112</v>
       </c>
@@ -2739,21 +2745,21 @@
       <c r="D2" s="127"/>
       <c r="E2" s="127"/>
       <c r="F2" s="127"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="55"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="55"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="128" t="s">
         <v>113</v>
       </c>
@@ -2777,17 +2783,17 @@
       <c r="H5" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="55"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="131" t="s">
         <v>115</v>
       </c>
@@ -2808,10 +2814,10 @@
       <c r="C8" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
       <c r="H8" s="137"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -2822,10 +2828,10 @@
       <c r="C9" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="137"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -2842,35 +2848,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="55"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2894,7 +2900,7 @@
   </sheetPr>
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A10" ySplit="9" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -2923,67 +2929,67 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="112"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
       <c r="S1" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="112"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="113"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
       <c r="S2" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="112"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="114"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
       <c r="S3" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39">
@@ -2996,119 +3002,119 @@
       <c r="E4" s="116"/>
       <c r="F4" s="116"/>
       <c r="G4" s="117"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
       <c r="S4" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75">
       <c r="A5" s="112"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="118"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
       <c r="S5" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75">
       <c r="A6" s="112"/>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
       <c r="S6" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="34.9">
       <c r="A7" s="112"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="81" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
       <c r="S7" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="25.899999999999995">
       <c r="A8" s="112"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
       <c r="S8" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15">
@@ -3119,22 +3125,22 @@
       <c r="E9" s="120"/>
       <c r="F9" s="120"/>
       <c r="G9" s="121"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
       <c r="S9" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="112"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="88" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="122">
@@ -3152,43 +3158,43 @@
       <c r="G10" s="123">
         <v>86.6906261777716</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
       <c r="S10" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="112"/>
-      <c r="B11" s="89"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
       <c r="E11" s="122"/>
       <c r="F11" s="122"/>
       <c r="G11" s="123"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
       <c r="S11" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="112"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="88" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="122">
@@ -3203,25 +3209,25 @@
       <c r="F12" s="122">
         <v>374773.703243682</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="89">
         <v>112.10154340050482</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
       <c r="S12" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="112"/>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="124">
@@ -3236,46 +3242,46 @@
       <c r="F13" s="124">
         <v>374773.703243682</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="93">
         <v>112.10154340050482</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
       <c r="S13" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="112"/>
-      <c r="B14" s="79"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="124"/>
       <c r="D14" s="124"/>
       <c r="E14" s="124"/>
       <c r="F14" s="124"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
       <c r="S14" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="112"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="88" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="122">
@@ -3293,22 +3299,22 @@
       <c r="G15" s="123">
         <v>79.63866647357219</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
       <c r="S15" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="112"/>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="124">
@@ -3326,22 +3332,22 @@
       <c r="G16" s="125">
         <v>80.15566161480731</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
       <c r="S16" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="112"/>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="78" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="124">
@@ -3359,22 +3365,22 @@
       <c r="G17" s="125">
         <v>97.19840336541597</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
       <c r="S17" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="112"/>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="78" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="124">
@@ -3389,46 +3395,46 @@
       <c r="F18" s="124">
         <v>557126.3463157895</v>
       </c>
-      <c r="G18" s="94">
+      <c r="G18" s="93">
         <v>63.96535513852497</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
       <c r="S18" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="112"/>
-      <c r="B19" s="79"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="124"/>
       <c r="D19" s="124"/>
       <c r="E19" s="124"/>
       <c r="F19" s="124"/>
       <c r="G19" s="125"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
       <c r="S19" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="112"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="88" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="122">
@@ -3446,22 +3452,22 @@
       <c r="G20" s="123">
         <v>80.24876859668491</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
       <c r="S20" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="112"/>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="78" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="124">
@@ -3476,25 +3482,25 @@
       <c r="F21" s="124">
         <v>263725.2820860981</v>
       </c>
-      <c r="G21" s="94">
+      <c r="G21" s="93">
         <v>64.3705473881239</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
       <c r="S21" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="112"/>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="124">
@@ -3509,25 +3515,25 @@
       <c r="F22" s="124">
         <v>562934.6327339121</v>
       </c>
-      <c r="G22" s="94">
+      <c r="G22" s="93">
         <v>151.94918036462784</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
       <c r="S22" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="112"/>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="124">
@@ -3542,25 +3548,25 @@
       <c r="F23" s="124">
         <v>252698.11445012462</v>
       </c>
-      <c r="G23" s="94">
+      <c r="G23" s="93">
         <v>61.62598798703558</v>
       </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
       <c r="S23" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="112"/>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="124">
@@ -3578,22 +3584,22 @@
       <c r="G24" s="125">
         <v>89.91025119983941</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
       <c r="S24" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="112"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="78" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="124">
@@ -3611,22 +3617,22 @@
       <c r="G25" s="125">
         <v>104.81688920119699</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
       <c r="S25" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="112"/>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="78" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="124">
@@ -3644,22 +3650,22 @@
       <c r="G26" s="125">
         <v>118.80168170725555</v>
       </c>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
       <c r="S26" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="112"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="78" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="124">
@@ -3677,22 +3683,22 @@
       <c r="G27" s="125">
         <v>82.50925236180558</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
       <c r="S27" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="112"/>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="78" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="124">
@@ -3707,25 +3713,25 @@
       <c r="F28" s="124">
         <v>301999.7256236861</v>
       </c>
-      <c r="G28" s="94">
+      <c r="G28" s="93">
         <v>59.41288759875538</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
       <c r="S28" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="112"/>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="78" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="124">
@@ -3740,46 +3746,46 @@
       <c r="F29" s="124">
         <v>152581.63936387736</v>
       </c>
-      <c r="G29" s="94">
+      <c r="G29" s="93">
         <v>63.21734458821514</v>
       </c>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
       <c r="S29" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="112"/>
-      <c r="B30" s="79"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="124"/>
       <c r="D30" s="124"/>
       <c r="E30" s="124"/>
       <c r="F30" s="124"/>
       <c r="G30" s="125"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
       <c r="S30" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="112"/>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="88" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="124">
@@ -3797,43 +3803,43 @@
       <c r="G31" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="93"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
       <c r="S31" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="112"/>
-      <c r="B32" s="79"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="124"/>
       <c r="D32" s="124"/>
       <c r="E32" s="124"/>
       <c r="F32" s="124"/>
       <c r="G32" s="125"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="93"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
       <c r="S32" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="112"/>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="88" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="122">
@@ -3851,43 +3857,43 @@
       <c r="G33" s="123">
         <v>86.6906261777716</v>
       </c>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="63"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="112"/>
-      <c r="B34" s="89"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="122"/>
       <c r="D34" s="122"/>
       <c r="E34" s="122"/>
       <c r="F34" s="122"/>
       <c r="G34" s="123"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="63"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="112"/>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="78" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="124">
@@ -3905,22 +3911,22 @@
       <c r="G35" s="125">
         <v>93.5321839349413</v>
       </c>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="63"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="112"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="78" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="124">
@@ -3935,58 +3941,58 @@
       <c r="F36" s="124">
         <v>262928.2024159386</v>
       </c>
-      <c r="G36" s="94">
+      <c r="G36" s="93">
         <v>67.96351878342305</v>
       </c>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="63"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="112"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="94">
+      <c r="C37" s="93">
         <v>359700</v>
       </c>
-      <c r="D37" s="94">
+      <c r="D37" s="93">
         <v>182720</v>
       </c>
-      <c r="E37" s="94">
+      <c r="E37" s="93">
         <v>291946.488982157</v>
       </c>
-      <c r="F37" s="94">
+      <c r="F37" s="93">
         <v>205971.15198516668</v>
       </c>
-      <c r="G37" s="95">
+      <c r="G37" s="94">
         <v>70.55099470566165</v>
       </c>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="63"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="112"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="78" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="124">
@@ -4004,43 +4010,43 @@
       <c r="G38" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="63"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="112"/>
-      <c r="B39" s="79"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="124"/>
       <c r="D39" s="124"/>
       <c r="E39" s="124"/>
       <c r="F39" s="124"/>
       <c r="G39" s="125"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="63"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="112"/>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="88" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="122">
@@ -4058,43 +4064,43 @@
       <c r="G40" s="123">
         <v>86.6906261777716</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="63"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="112"/>
-      <c r="B41" s="89"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="122"/>
       <c r="D41" s="122"/>
       <c r="E41" s="122"/>
       <c r="F41" s="122"/>
       <c r="G41" s="123"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="63"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="112"/>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="124">
@@ -4112,22 +4118,22 @@
       <c r="G42" s="125">
         <v>99.09458438197109</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="63"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="112"/>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="124">
@@ -4145,43 +4151,43 @@
       <c r="G43" s="125">
         <v>71.67868468328513</v>
       </c>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="63"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="112"/>
-      <c r="B44" s="79"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="124"/>
       <c r="D44" s="124"/>
       <c r="E44" s="124"/>
       <c r="F44" s="124"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="63"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="112"/>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="88" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="122">
@@ -4199,43 +4205,43 @@
       <c r="G45" s="123">
         <v>86.6906261777716</v>
       </c>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="63"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="112"/>
-      <c r="B46" s="89"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="122"/>
       <c r="D46" s="122"/>
       <c r="E46" s="122"/>
       <c r="F46" s="122"/>
       <c r="G46" s="123"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="63"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="112"/>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="78" t="s">
         <v>76</v>
       </c>
       <c r="C47" s="124">
@@ -4253,22 +4259,22 @@
       <c r="G47" s="125">
         <v>90.7505360743819</v>
       </c>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="63"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="112"/>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="78" t="s">
         <v>77</v>
       </c>
       <c r="C48" s="124">
@@ -4286,22 +4292,22 @@
       <c r="G48" s="125">
         <v>56.72108911964157</v>
       </c>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="63"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="112"/>
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="78" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="124">
@@ -4319,22 +4325,22 @@
       <c r="G49" s="125">
         <v>91.29235750042369</v>
       </c>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="93"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="92"/>
       <c r="S49" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="112"/>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C50" s="124">
@@ -4352,247 +4358,247 @@
       <c r="G50" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="93"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92"/>
       <c r="S50" s="112"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="112"/>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
       <c r="S51" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="112"/>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
       <c r="S52" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="112"/>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="63"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
       <c r="S53" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="112"/>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
       <c r="S54" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="112"/>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
       <c r="S55" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="112"/>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
       <c r="S56" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="112"/>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
       <c r="S57" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="112"/>
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
       <c r="S58" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="112"/>
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
       <c r="S59" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="112"/>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
       <c r="S60" s="112"/>
     </row>
   </sheetData>
@@ -4628,13 +4634,13 @@
   </sheetPr>
   <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A12" ySplit="11" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="52" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="108" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="109" width="49.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
@@ -4660,310 +4666,310 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="55"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="55"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="44.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75">
-      <c r="A5" s="55"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75">
-      <c r="A6" s="55"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="55"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="77" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.45">
-      <c r="A8" s="55"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="77" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="80" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="30.600000000000005">
-      <c r="A9" s="55"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="81" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81" t="s">
+      <c r="D9" s="80"/>
+      <c r="E9" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81" t="s">
+      <c r="I9" s="80"/>
+      <c r="J9" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="84" t="s">
+      <c r="K9" s="80"/>
+      <c r="L9" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75">
-      <c r="A10" s="55"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="81" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="83" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -4977,1687 +4983,1687 @@
       <c r="W11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="55"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="89">
         <v>274019</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="89">
         <v>339054</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="89">
         <v>261441.86286528746</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="89">
         <v>182173.12792492172</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="90">
         <v>30.31983251328436</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="91">
         <v>1058942</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="89">
         <v>493308</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="89">
         <v>547344.3112099814</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="89">
         <v>595708.275021901</v>
       </c>
-      <c r="L12" s="91">
+      <c r="L12" s="90">
         <v>-8.83611336071151</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="55"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="55"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="89">
         <v>77764</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="89">
         <v>18104</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="89">
         <v>205479.23697295145</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="89">
         <v>287667.0421516931</v>
       </c>
-      <c r="G14" s="91">
+      <c r="G14" s="90">
         <v>-39.99810705427164</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="91">
         <v>151748</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="89">
         <v>18655</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="89">
         <v>362275.87589819846</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="89">
         <v>486398.8703587162</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="89">
         <v>-34.26200934654477</v>
       </c>
-      <c r="M14" s="63"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="55"/>
-      <c r="B15" s="79" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="93">
         <v>77764</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="93">
         <v>18104</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="93">
         <v>205479.23697295145</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="93">
         <v>287667.0421516931</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="94">
         <v>-39.99810705427164</v>
       </c>
-      <c r="H15" s="96">
+      <c r="H15" s="95">
         <v>151748</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="93">
         <v>18655</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="93">
         <v>362275.87589819846</v>
       </c>
-      <c r="K15" s="94">
+      <c r="K15" s="93">
         <v>486398.8703587162</v>
       </c>
-      <c r="L15" s="94">
+      <c r="L15" s="93">
         <v>-34.26200934654477</v>
       </c>
-      <c r="M15" s="63"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="55"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="55"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="89">
         <v>40504</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="89">
         <v>29832</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="89">
         <v>243196.14698040675</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="89">
         <v>120672.81256480633</v>
       </c>
-      <c r="G17" s="91">
+      <c r="G17" s="90">
         <v>50.38045871075071</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="91">
         <v>275739</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="89">
         <v>57973</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="89">
         <v>492525.6966238705</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="89">
         <v>474475.110139845</v>
       </c>
-      <c r="L17" s="91">
+      <c r="L17" s="90">
         <v>3.6649024828059487</v>
       </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="55"/>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="94">
+      <c r="C18" s="93">
         <v>18973</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="93">
         <v>29209</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="93">
         <v>257237.6737307101</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="93">
         <v>120207.3445052777</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="94">
         <v>53.26993019260583</v>
       </c>
-      <c r="H18" s="96">
+      <c r="H18" s="95">
         <v>135045</v>
       </c>
-      <c r="I18" s="94">
+      <c r="I18" s="93">
         <v>53797</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="93">
         <v>453237.95338220487</v>
       </c>
-      <c r="K18" s="94">
+      <c r="K18" s="93">
         <v>472972.59483318066</v>
       </c>
-      <c r="L18" s="95">
+      <c r="L18" s="94">
         <v>-4.354145830839994</v>
       </c>
-      <c r="M18" s="63"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="55"/>
-      <c r="B19" s="79" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="94">
+      <c r="C19" s="93">
         <v>20751</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="93">
         <v>408</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="93">
         <v>215243.29719151274</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="93">
         <v>66000</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="93">
         <v>69.33702425991156</v>
       </c>
-      <c r="H19" s="96">
+      <c r="H19" s="95">
         <v>116906</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="93">
         <v>2016</v>
       </c>
-      <c r="J19" s="94">
+      <c r="J19" s="93">
         <v>367414.8080198609</v>
       </c>
-      <c r="K19" s="94">
+      <c r="K19" s="93">
         <v>331776.90700104495</v>
       </c>
-      <c r="L19" s="94">
+      <c r="L19" s="93">
         <v>9.699636552724215</v>
       </c>
-      <c r="M19" s="63"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="55"/>
-      <c r="B20" s="79" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="93">
         <v>780</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="93">
         <v>215</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="93">
         <v>538515.36643026</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="93">
         <v>199031.00775193798</v>
       </c>
-      <c r="G20" s="95">
+      <c r="G20" s="94">
         <v>63.040793232830936</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="95">
         <v>23788</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="93">
         <v>2160</v>
       </c>
-      <c r="J20" s="94">
+      <c r="J20" s="93">
         <v>928551.4526726396</v>
       </c>
-      <c r="K20" s="94">
+      <c r="K20" s="93">
         <v>616505.2767917513</v>
       </c>
-      <c r="L20" s="95">
+      <c r="L20" s="94">
         <v>33.605695729916654</v>
       </c>
-      <c r="M20" s="63"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="55"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="55"/>
-      <c r="B22" s="89" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="89">
         <v>155751</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="89">
         <v>291118</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="89">
         <v>289051.8722331038</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="89">
         <v>184634.65484842093</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="90">
         <v>36.12404118956072</v>
       </c>
-      <c r="H22" s="92">
+      <c r="H22" s="91">
         <v>620808</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22" s="89">
         <v>409370</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="89">
         <v>608547.691316369</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="89">
         <v>618376.9235171637</v>
       </c>
-      <c r="L22" s="91">
+      <c r="L22" s="90">
         <v>-1.6151950522616907</v>
       </c>
-      <c r="M22" s="63"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="55"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="93">
         <v>37648</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="93">
         <v>62154</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="93">
         <v>252401.98031084804</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="93">
         <v>99995.50067050758</v>
       </c>
-      <c r="G23" s="94">
+      <c r="G23" s="93">
         <v>60.38244210787999</v>
       </c>
-      <c r="H23" s="96">
+      <c r="H23" s="95">
         <v>180105</v>
       </c>
-      <c r="I23" s="94">
+      <c r="I23" s="93">
         <v>87237</v>
       </c>
-      <c r="J23" s="94">
+      <c r="J23" s="93">
         <v>414315.7929243206</v>
       </c>
-      <c r="K23" s="94">
+      <c r="K23" s="93">
         <v>375551.47085520084</v>
       </c>
-      <c r="L23" s="95">
+      <c r="L23" s="94">
         <v>9.356226031239053</v>
       </c>
-      <c r="M23" s="63"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="55"/>
-      <c r="B24" s="79" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="93">
         <v>13017</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="93">
         <v>38469</v>
       </c>
-      <c r="E24" s="94">
+      <c r="E24" s="93">
         <v>284423.32443312276</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="93">
         <v>133214.13476884709</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="94">
         <v>53.16342812800148</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H24" s="95">
         <v>43792</v>
       </c>
-      <c r="I24" s="94">
+      <c r="I24" s="93">
         <v>35693</v>
       </c>
-      <c r="J24" s="94">
+      <c r="J24" s="93">
         <v>379585.4213472223</v>
       </c>
-      <c r="K24" s="94">
+      <c r="K24" s="93">
         <v>368161.8831113814</v>
       </c>
-      <c r="L24" s="95">
+      <c r="L24" s="94">
         <v>3.009477601983911</v>
       </c>
-      <c r="M24" s="63"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
-      <c r="A25" s="55"/>
-      <c r="B25" s="79" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="93">
         <v>29464</v>
       </c>
-      <c r="D25" s="94">
+      <c r="D25" s="93">
         <v>15927</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="93">
         <v>313992.9379284314</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="93">
         <v>289146.1781531352</v>
       </c>
-      <c r="G25" s="95">
+      <c r="G25" s="94">
         <v>7.913158792431039</v>
       </c>
-      <c r="H25" s="96">
+      <c r="H25" s="95">
         <v>110552</v>
       </c>
-      <c r="I25" s="94">
+      <c r="I25" s="93">
         <v>47684</v>
       </c>
-      <c r="J25" s="94">
+      <c r="J25" s="93">
         <v>468245.44623639365</v>
       </c>
-      <c r="K25" s="94">
+      <c r="K25" s="93">
         <v>498302.6471882593</v>
       </c>
-      <c r="L25" s="95">
+      <c r="L25" s="94">
         <v>-6.419112282555177</v>
       </c>
-      <c r="M25" s="63"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="55"/>
-      <c r="B26" s="79" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="94">
+      <c r="C26" s="93">
         <v>14494</v>
       </c>
-      <c r="D26" s="94">
+      <c r="D26" s="93">
         <v>40936</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="93">
         <v>499759.64909702074</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="93">
         <v>541750.3689107327</v>
       </c>
-      <c r="G26" s="95">
+      <c r="G26" s="94">
         <v>-8.402182907239892</v>
       </c>
-      <c r="H26" s="96">
+      <c r="H26" s="95">
         <v>58747</v>
       </c>
-      <c r="I26" s="94">
+      <c r="I26" s="93">
         <v>90294</v>
       </c>
-      <c r="J26" s="94">
+      <c r="J26" s="93">
         <v>1104762.7716048725</v>
       </c>
-      <c r="K26" s="94">
+      <c r="K26" s="93">
         <v>881016.8524140777</v>
       </c>
-      <c r="L26" s="95">
+      <c r="L26" s="94">
         <v>20.252847483787168</v>
       </c>
-      <c r="M26" s="63"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="55"/>
-      <c r="B27" s="79" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="94">
+      <c r="C27" s="93">
         <v>29080</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="93">
         <v>41009</v>
       </c>
-      <c r="E27" s="94">
+      <c r="E27" s="93">
         <v>142573.57669224046</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="93">
         <v>99869.19143428026</v>
       </c>
-      <c r="G27" s="95">
+      <c r="G27" s="94">
         <v>29.95252433776137</v>
       </c>
-      <c r="H27" s="96">
+      <c r="H27" s="95">
         <v>63373</v>
       </c>
-      <c r="I27" s="94">
+      <c r="I27" s="93">
         <v>36571</v>
       </c>
-      <c r="J27" s="94">
+      <c r="J27" s="93">
         <v>668675.4289118893</v>
       </c>
-      <c r="K27" s="94">
+      <c r="K27" s="93">
         <v>556204.8839935247</v>
       </c>
-      <c r="L27" s="95">
+      <c r="L27" s="94">
         <v>16.819900964715238</v>
       </c>
-      <c r="M27" s="63"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="55"/>
-      <c r="B28" s="79" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="93">
         <v>9652</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="93">
         <v>87774</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="93">
         <v>133939.01686459518</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="93">
         <v>100328.60679072682</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G28" s="94">
         <v>25.093815723499446</v>
       </c>
-      <c r="H28" s="96">
+      <c r="H28" s="95">
         <v>9667</v>
       </c>
-      <c r="I28" s="94">
+      <c r="I28" s="93">
         <v>52265</v>
       </c>
-      <c r="J28" s="94">
+      <c r="J28" s="93">
         <v>288292.53301426914</v>
       </c>
-      <c r="K28" s="94">
+      <c r="K28" s="93">
         <v>215611.1311481614</v>
       </c>
-      <c r="L28" s="95">
+      <c r="L28" s="94">
         <v>25.21099006837973</v>
       </c>
-      <c r="M28" s="63"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="55"/>
-      <c r="B29" s="79" t="s">
+      <c r="A29" s="54"/>
+      <c r="B29" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="93">
         <v>22396</v>
       </c>
-      <c r="D29" s="94">
+      <c r="D29" s="93">
         <v>4849</v>
       </c>
-      <c r="E29" s="94">
+      <c r="E29" s="93">
         <v>386409.1754990593</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="93">
         <v>652527.634984382</v>
       </c>
-      <c r="G29" s="95">
+      <c r="G29" s="94">
         <v>-68.86960154132534</v>
       </c>
-      <c r="H29" s="96">
+      <c r="H29" s="95">
         <v>154572</v>
       </c>
-      <c r="I29" s="94">
+      <c r="I29" s="93">
         <v>59626</v>
       </c>
-      <c r="J29" s="94">
+      <c r="J29" s="93">
         <v>693973.7548935384</v>
       </c>
-      <c r="K29" s="94">
+      <c r="K29" s="93">
         <v>932371.8380339874</v>
       </c>
-      <c r="L29" s="94">
+      <c r="L29" s="93">
         <v>-34.352607927805764</v>
       </c>
-      <c r="M29" s="63"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="55"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="55"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="94">
+      <c r="C31" s="93">
         <v>0</v>
       </c>
-      <c r="D31" s="94">
+      <c r="D31" s="93">
         <v>0</v>
       </c>
-      <c r="E31" s="94" t="s">
+      <c r="E31" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="97" t="s">
+      <c r="F31" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="95" t="s">
+      <c r="G31" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="94">
+      <c r="H31" s="93">
         <v>10647</v>
       </c>
-      <c r="I31" s="94">
+      <c r="I31" s="93">
         <v>7310</v>
       </c>
-      <c r="J31" s="94" t="s">
+      <c r="J31" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="94" t="s">
+      <c r="K31" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="94" t="s">
+      <c r="L31" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="63"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="55"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="55"/>
-      <c r="B33" s="89" t="s">
+      <c r="A33" s="54"/>
+      <c r="B33" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="89">
         <v>274019</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="89">
         <v>339054</v>
       </c>
-      <c r="E33" s="90">
+      <c r="E33" s="89">
         <v>261441.86286528746</v>
       </c>
-      <c r="F33" s="90">
+      <c r="F33" s="89">
         <v>182173.12792492172</v>
       </c>
-      <c r="G33" s="91">
+      <c r="G33" s="90">
         <v>30.31983251328436</v>
       </c>
-      <c r="H33" s="92">
+      <c r="H33" s="91">
         <v>1058942</v>
       </c>
-      <c r="I33" s="90">
+      <c r="I33" s="89">
         <v>493308</v>
       </c>
-      <c r="J33" s="90">
+      <c r="J33" s="89">
         <v>547344.3112099814</v>
       </c>
-      <c r="K33" s="90">
+      <c r="K33" s="89">
         <v>595708.275021901</v>
       </c>
-      <c r="L33" s="91">
+      <c r="L33" s="90">
         <v>-8.83611336071151</v>
       </c>
-      <c r="M33" s="63"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="55"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="55"/>
-      <c r="B35" s="79" t="s">
+      <c r="A35" s="54"/>
+      <c r="B35" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="94">
+      <c r="C35" s="93">
         <v>37262</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="93">
         <v>49786</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="93">
         <v>578884.5995571441</v>
       </c>
-      <c r="F35" s="94">
+      <c r="F35" s="93">
         <v>576117.4275080237</v>
       </c>
-      <c r="G35" s="95">
+      <c r="G35" s="94">
         <v>0.478017907409758</v>
       </c>
-      <c r="H35" s="96">
+      <c r="H35" s="95">
         <v>195913</v>
       </c>
-      <c r="I35" s="94">
+      <c r="I35" s="93">
         <v>145654</v>
       </c>
-      <c r="J35" s="94">
+      <c r="J35" s="93">
         <v>1071772.1676774777</v>
       </c>
-      <c r="K35" s="94">
+      <c r="K35" s="93">
         <v>1041142.5460966239</v>
       </c>
-      <c r="L35" s="95">
+      <c r="L35" s="94">
         <v>2.8578481980202923</v>
       </c>
-      <c r="M35" s="63"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="93"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="55"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="94">
+      <c r="C36" s="93">
         <v>131939</v>
       </c>
-      <c r="D36" s="94">
+      <c r="D36" s="93">
         <v>191647</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="93">
         <v>239266.4301992595</v>
       </c>
-      <c r="F36" s="94">
+      <c r="F36" s="93">
         <v>118480.48157165281</v>
       </c>
-      <c r="G36" s="95">
+      <c r="G36" s="94">
         <v>50.4817782114344</v>
       </c>
-      <c r="H36" s="96">
+      <c r="H36" s="95">
         <v>591554</v>
       </c>
-      <c r="I36" s="94">
+      <c r="I36" s="93">
         <v>256377</v>
       </c>
-      <c r="J36" s="94">
+      <c r="J36" s="93">
         <v>412247.1113435747</v>
       </c>
-      <c r="K36" s="94">
+      <c r="K36" s="93">
         <v>375209.58355458855</v>
       </c>
-      <c r="L36" s="95">
+      <c r="L36" s="94">
         <v>8.98430256267299</v>
       </c>
-      <c r="M36" s="63"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="93"/>
-      <c r="W36" s="93"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="55"/>
-      <c r="B37" s="79" t="s">
+      <c r="A37" s="54"/>
+      <c r="B37" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="94">
+      <c r="C37" s="93">
         <v>102849</v>
       </c>
-      <c r="D37" s="94">
+      <c r="D37" s="93">
         <v>97621</v>
       </c>
-      <c r="E37" s="94">
+      <c r="E37" s="93">
         <v>147251.67857672638</v>
       </c>
-      <c r="F37" s="94">
+      <c r="F37" s="93">
         <v>112974.64256554295</v>
       </c>
-      <c r="G37" s="95">
+      <c r="G37" s="94">
         <v>23.277857571805658</v>
       </c>
-      <c r="H37" s="96">
+      <c r="H37" s="95">
         <v>256851</v>
       </c>
-      <c r="I37" s="94">
+      <c r="I37" s="93">
         <v>85099</v>
       </c>
-      <c r="J37" s="94">
+      <c r="J37" s="93">
         <v>319054.85834368656</v>
       </c>
-      <c r="K37" s="94">
+      <c r="K37" s="93">
         <v>293415.41813933384</v>
       </c>
-      <c r="L37" s="95">
+      <c r="L37" s="94">
         <v>8.036060111247032</v>
       </c>
-      <c r="M37" s="63"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="93"/>
-      <c r="T37" s="93"/>
-      <c r="U37" s="93"/>
-      <c r="V37" s="93"/>
-      <c r="W37" s="93"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="55"/>
-      <c r="B38" s="79" t="s">
+      <c r="A38" s="54"/>
+      <c r="B38" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="94">
+      <c r="C38" s="93">
         <v>1969</v>
       </c>
-      <c r="D38" s="94">
+      <c r="D38" s="93">
         <v>0</v>
       </c>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="94" t="s">
+      <c r="F38" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="95" t="s">
+      <c r="G38" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="96">
+      <c r="H38" s="95">
         <v>14624</v>
       </c>
-      <c r="I38" s="94">
+      <c r="I38" s="93">
         <v>6178</v>
       </c>
-      <c r="J38" s="94" t="s">
+      <c r="J38" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="94" t="s">
+      <c r="K38" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="L38" s="94" t="s">
+      <c r="L38" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M38" s="63"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="93"/>
-      <c r="U38" s="93"/>
-      <c r="V38" s="93"/>
-      <c r="W38" s="93"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="55"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="93"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="92"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="55"/>
-      <c r="B40" s="89" t="s">
+      <c r="A40" s="54"/>
+      <c r="B40" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="90">
+      <c r="C40" s="89">
         <v>274019</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D40" s="89">
         <v>339054</v>
       </c>
-      <c r="E40" s="90">
+      <c r="E40" s="89">
         <v>261441.86286528746</v>
       </c>
-      <c r="F40" s="90">
+      <c r="F40" s="89">
         <v>182173.12792492172</v>
       </c>
-      <c r="G40" s="91">
+      <c r="G40" s="90">
         <v>30.31983251328436</v>
       </c>
-      <c r="H40" s="92">
+      <c r="H40" s="91">
         <v>1058942</v>
       </c>
-      <c r="I40" s="90">
+      <c r="I40" s="89">
         <v>493308</v>
       </c>
-      <c r="J40" s="90">
+      <c r="J40" s="89">
         <v>547344.3112099814</v>
       </c>
-      <c r="K40" s="90">
+      <c r="K40" s="89">
         <v>595708.275021901</v>
       </c>
-      <c r="L40" s="91">
+      <c r="L40" s="90">
         <v>-8.83611336071151</v>
       </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="93"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="55"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="93"/>
-      <c r="V41" s="93"/>
-      <c r="W41" s="93"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="92"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="55"/>
-      <c r="B42" s="79" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="94">
+      <c r="C42" s="93">
         <v>10133</v>
       </c>
-      <c r="D42" s="94">
+      <c r="D42" s="93">
         <v>23303</v>
       </c>
-      <c r="E42" s="94">
+      <c r="E42" s="93">
         <v>743172.7622048421</v>
       </c>
-      <c r="F42" s="94">
+      <c r="F42" s="93">
         <v>749119.5338062112</v>
       </c>
-      <c r="G42" s="95">
+      <c r="G42" s="94">
         <v>-0.8001869691411025</v>
       </c>
-      <c r="H42" s="96">
+      <c r="H42" s="95">
         <v>130051</v>
       </c>
-      <c r="I42" s="94">
+      <c r="I42" s="93">
         <v>111584</v>
       </c>
-      <c r="J42" s="94">
+      <c r="J42" s="93">
         <v>1013897.5871223455</v>
       </c>
-      <c r="K42" s="94">
+      <c r="K42" s="93">
         <v>1037393.9845319896</v>
       </c>
-      <c r="L42" s="95">
+      <c r="L42" s="94">
         <v>-2.3174330137555423</v>
       </c>
-      <c r="M42" s="63"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="55"/>
-      <c r="B43" s="79" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="94">
+      <c r="C43" s="93">
         <v>263886</v>
       </c>
-      <c r="D43" s="94">
+      <c r="D43" s="93">
         <v>315751</v>
       </c>
-      <c r="E43" s="94">
+      <c r="E43" s="93">
         <v>238241.7619264109</v>
       </c>
-      <c r="F43" s="94">
+      <c r="F43" s="93">
         <v>135531.1286635294</v>
       </c>
-      <c r="G43" s="95">
+      <c r="G43" s="94">
         <v>43.111934881764</v>
       </c>
-      <c r="H43" s="96">
+      <c r="H43" s="95">
         <v>928891</v>
       </c>
-      <c r="I43" s="94">
+      <c r="I43" s="93">
         <v>381724</v>
       </c>
-      <c r="J43" s="94">
+      <c r="J43" s="93">
         <v>448146.8844413234</v>
       </c>
-      <c r="K43" s="94">
+      <c r="K43" s="93">
         <v>423471.9411595231</v>
       </c>
-      <c r="L43" s="95">
+      <c r="L43" s="94">
         <v>5.505994605443038</v>
       </c>
-      <c r="M43" s="63"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="92"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="55"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="93"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="55"/>
-      <c r="B45" s="89" t="s">
+      <c r="A45" s="54"/>
+      <c r="B45" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="90">
+      <c r="C45" s="89">
         <v>274019</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="89">
         <v>339054</v>
       </c>
-      <c r="E45" s="90">
+      <c r="E45" s="89">
         <v>261441.86286528746</v>
       </c>
-      <c r="F45" s="90">
+      <c r="F45" s="89">
         <v>182173.12792492172</v>
       </c>
-      <c r="G45" s="91">
+      <c r="G45" s="90">
         <v>30.31983251328436</v>
       </c>
-      <c r="H45" s="92">
+      <c r="H45" s="91">
         <v>1058942</v>
       </c>
-      <c r="I45" s="90">
+      <c r="I45" s="89">
         <v>493308</v>
       </c>
-      <c r="J45" s="90">
+      <c r="J45" s="89">
         <v>547344.3112099814</v>
       </c>
-      <c r="K45" s="90">
+      <c r="K45" s="89">
         <v>595708.275021901</v>
       </c>
-      <c r="L45" s="91">
+      <c r="L45" s="90">
         <v>-8.83611336071151</v>
       </c>
-      <c r="M45" s="63"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="93"/>
-      <c r="V45" s="93"/>
-      <c r="W45" s="93"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="55"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="93"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="55"/>
-      <c r="B47" s="79" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="94">
+      <c r="C47" s="93">
         <v>130462</v>
       </c>
-      <c r="D47" s="94">
+      <c r="D47" s="93">
         <v>201309</v>
       </c>
-      <c r="E47" s="94">
+      <c r="E47" s="93">
         <v>323047.4332668513</v>
       </c>
-      <c r="F47" s="94">
+      <c r="F47" s="93">
         <v>224058.0659187139</v>
       </c>
-      <c r="G47" s="95">
+      <c r="G47" s="94">
         <v>30.642363057058514</v>
       </c>
-      <c r="H47" s="96">
+      <c r="H47" s="95">
         <v>849333</v>
       </c>
-      <c r="I47" s="94">
+      <c r="I47" s="93">
         <v>434781</v>
       </c>
-      <c r="J47" s="94">
+      <c r="J47" s="93">
         <v>570651.0887305206</v>
       </c>
-      <c r="K47" s="94">
+      <c r="K47" s="93">
         <v>607286.1173662009</v>
       </c>
-      <c r="L47" s="95">
+      <c r="L47" s="94">
         <v>-6.419864845466113</v>
       </c>
-      <c r="M47" s="63"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="93"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="93"/>
-      <c r="V47" s="93"/>
-      <c r="W47" s="93"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="55"/>
-      <c r="B48" s="79" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="94">
+      <c r="C48" s="93">
         <v>114196</v>
       </c>
-      <c r="D48" s="94">
+      <c r="D48" s="93">
         <v>115588</v>
       </c>
-      <c r="E48" s="94">
+      <c r="E48" s="93">
         <v>167325.81105921444</v>
       </c>
-      <c r="F48" s="94">
+      <c r="F48" s="93">
         <v>113815.91003791326</v>
       </c>
-      <c r="G48" s="95">
+      <c r="G48" s="94">
         <v>31.979466098248714</v>
       </c>
-      <c r="H48" s="96">
+      <c r="H48" s="95">
         <v>155272</v>
       </c>
-      <c r="I48" s="94">
+      <c r="I48" s="93">
         <v>37939</v>
       </c>
-      <c r="J48" s="94">
+      <c r="J48" s="93">
         <v>340068.6082877223</v>
       </c>
-      <c r="K48" s="94">
+      <c r="K48" s="93">
         <v>283406.86346207745</v>
       </c>
-      <c r="L48" s="95">
+      <c r="L48" s="94">
         <v>16.6618568855685</v>
       </c>
-      <c r="M48" s="63"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="93"/>
-      <c r="T48" s="93"/>
-      <c r="U48" s="93"/>
-      <c r="V48" s="93"/>
-      <c r="W48" s="93"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="55"/>
-      <c r="B49" s="79" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="94">
+      <c r="C49" s="93">
         <v>21395</v>
       </c>
-      <c r="D49" s="94">
+      <c r="D49" s="93">
         <v>6299</v>
       </c>
-      <c r="E49" s="94">
+      <c r="E49" s="93">
         <v>487604.7036801409</v>
       </c>
-      <c r="F49" s="94">
+      <c r="F49" s="93">
         <v>219888.41517351943</v>
       </c>
-      <c r="G49" s="95">
+      <c r="G49" s="94">
         <v>54.904369561257994</v>
       </c>
-      <c r="H49" s="96">
+      <c r="H49" s="95">
         <v>50323</v>
       </c>
-      <c r="I49" s="94">
+      <c r="I49" s="93">
         <v>12685</v>
       </c>
-      <c r="J49" s="94">
+      <c r="J49" s="93">
         <v>626777.8204935528</v>
       </c>
-      <c r="K49" s="94">
+      <c r="K49" s="93">
         <v>984048.0118740724</v>
       </c>
-      <c r="L49" s="94">
+      <c r="L49" s="93">
         <v>-57.00109029052576</v>
       </c>
-      <c r="M49" s="56"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="93"/>
-      <c r="S49" s="93"/>
-      <c r="T49" s="93"/>
-      <c r="U49" s="93"/>
-      <c r="V49" s="93"/>
-      <c r="W49" s="93"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="92"/>
+      <c r="S49" s="92"/>
+      <c r="T49" s="92"/>
+      <c r="U49" s="92"/>
+      <c r="V49" s="92"/>
+      <c r="W49" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="55"/>
-      <c r="B50" s="79" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="94">
+      <c r="C50" s="93">
         <v>7966</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="93">
         <v>15858</v>
       </c>
-      <c r="E50" s="94" t="s">
+      <c r="E50" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="94" t="s">
+      <c r="F50" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="95" t="s">
+      <c r="G50" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="94">
+      <c r="H50" s="93">
         <v>4014</v>
       </c>
-      <c r="I50" s="94">
+      <c r="I50" s="93">
         <v>7903</v>
       </c>
-      <c r="J50" s="94" t="s">
+      <c r="J50" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="94" t="s">
+      <c r="K50" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="L50" s="94" t="s">
+      <c r="L50" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M50" s="63"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="93"/>
-      <c r="S50" s="93"/>
-      <c r="T50" s="93"/>
-      <c r="U50" s="93"/>
-      <c r="V50" s="93"/>
-      <c r="W50" s="93"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="92"/>
+      <c r="T50" s="92"/>
+      <c r="U50" s="92"/>
+      <c r="V50" s="92"/>
+      <c r="W50" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="12">
-      <c r="A51" s="55"/>
-      <c r="B51" s="98" t="s">
+      <c r="A51" s="54"/>
+      <c r="B51" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="63"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="63"/>
-      <c r="V51" s="63"/>
-      <c r="W51" s="63"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="13.5">
-      <c r="A52" s="55"/>
-      <c r="B52" s="98" t="s">
+      <c r="A52" s="54"/>
+      <c r="B52" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="99"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="63"/>
-      <c r="W52" s="63"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="12" customFormat="1" s="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6671,247 +6677,247 @@
       <c r="W53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="13.5">
-      <c r="A54" s="55"/>
-      <c r="B54" s="98" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="99"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="63"/>
-      <c r="W54" s="63"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="55"/>
-      <c r="B55" s="63" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="55"/>
-      <c r="B56" s="63" t="s">
+      <c r="A56" s="54"/>
+      <c r="B56" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="63"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="63"/>
-      <c r="W56" s="63"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="55"/>
-      <c r="B57" s="63" t="s">
+      <c r="A57" s="54"/>
+      <c r="B57" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="63"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="63"/>
-      <c r="V57" s="63"/>
-      <c r="W57" s="63"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="55"/>
-      <c r="B58" s="63" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="63"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="63"/>
-      <c r="V58" s="63"/>
-      <c r="W58" s="63"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="62"/>
+      <c r="V58" s="62"/>
+      <c r="W58" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="55"/>
-      <c r="B59" s="63" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="63"/>
-      <c r="V59" s="63"/>
-      <c r="W59" s="63"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="62"/>
+      <c r="V59" s="62"/>
+      <c r="W59" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="55"/>
-      <c r="B60" s="103" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="104"/>
-      <c r="L60" s="104"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63"/>
-      <c r="S60" s="63"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="63"/>
-      <c r="V60" s="63"/>
-      <c r="W60" s="63"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="62"/>
+      <c r="V60" s="62"/>
+      <c r="W60" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="55"/>
-      <c r="B61" s="106" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="63"/>
-      <c r="V61" s="63"/>
-      <c r="W61" s="63"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="106"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="55"/>
-      <c r="B62" s="63" t="s">
+      <c r="A62" s="54"/>
+      <c r="B62" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="101"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="63"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="63"/>
-      <c r="T62" s="63"/>
-      <c r="U62" s="63"/>
-      <c r="V62" s="63"/>
-      <c r="W62" s="63"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
+      <c r="W62" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -6959,13 +6965,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="52" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="62.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="53" width="2.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="53" width="55.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="62.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="52" width="2.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="52" width="55.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="52" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="52" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="52" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="52" width="39.29071428571429" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -7031,7 +7037,7 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
@@ -7350,13 +7356,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="52" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="62.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="53" width="2.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="53" width="62.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="62.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="52" width="2.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="52" width="62.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="52" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="52" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="52" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="52" width="39.29071428571429" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
